--- a/prix/collecteur.xlsx
+++ b/prix/collecteur.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FF6298-6707-45B1-ABC3-31A6E730D0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB97DF6-B385-4996-AFA3-9BA609C42DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC89CC73-BE36-4334-9D51-D90570969AD5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
   <si>
     <t>43120560</t>
   </si>
@@ -318,6 +318,18 @@
   </si>
   <si>
     <t>Article</t>
+  </si>
+  <si>
+    <t>denomination</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <t>3/4-4/4</t>
   </si>
 </sst>
 </file>
@@ -327,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +352,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -720,40 +738,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5862B2-EBB0-4D15-9659-D132FB8D0373}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="6"/>
     <col min="2" max="2" width="37.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="1" customWidth="1"/>
-    <col min="9" max="12" width="10.77734375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="7" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
+    <col min="10" max="13" width="10.77734375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -762,514 +783,650 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="8">
         <v>19.78</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="8">
         <v>26.73</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="8">
         <v>35.69</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="8">
         <v>40.56</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="8">
         <v>47.7</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="8">
         <v>17.77</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="8">
         <v>25.13</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="8">
         <v>33.54</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="8">
         <v>36.700000000000003</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="8">
         <v>47.7</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="8">
         <v>6.01</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="8">
         <v>5.6000000000000005</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="8">
         <v>22.8</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="8">
         <v>34.01</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="8">
         <v>7.09</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="8">
         <v>11.75</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="8">
         <v>5.17</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="8">
         <v>19.59</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="8">
         <v>19.59</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="8">
         <v>42.78</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="8">
         <v>42.78</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="8">
         <v>30.72</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="8">
         <v>42.57</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="8">
         <v>55.370000000000005</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7"/>
+      <c r="D26" s="8">
         <v>0.61</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="8">
         <v>17.34</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="8">
         <v>20.11</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="8">
         <v>27.79</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="8">
         <v>32.410000000000004</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="8">
         <v>33.07</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="8">
         <v>37.5</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="8">
         <v>31.28</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="8">
         <v>9.11</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="8">
         <v>13.6</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="8">
         <v>18.18</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="8">
         <v>22.82</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="8">
         <v>27.67</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="8">
         <v>31.19</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="8">
         <v>35.56</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="8">
         <v>9.34</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="8">
         <v>6.75</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="8">
         <v>9.7000000000000011</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="8">
         <v>15.48</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="8">
         <v>8.75</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="8">
         <v>11.93</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7"/>
+      <c r="D47" s="8">
         <v>4.62</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prix/collecteur.xlsx
+++ b/prix/collecteur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6349EDE8-466D-4F7B-A65C-D36D7EA48DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD9934A-C2E2-472B-AAEF-97949AC15704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC89CC73-BE36-4334-9D51-D90570969AD5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>43120560</t>
   </si>
@@ -218,36 +218,12 @@
     <t>4/4</t>
   </si>
   <si>
-    <t>collecteur/collecteur-2-bleu.png</t>
-  </si>
-  <si>
     <t>collecteur/collecteur-2-rouge.png</t>
   </si>
   <si>
-    <t>collecteur/collecteur-3-bleu.png</t>
-  </si>
-  <si>
     <t>collecteur/collecteur-3-rouge.png</t>
   </si>
   <si>
-    <t>collecteur/collecteur-4-bleu.png</t>
-  </si>
-  <si>
-    <t>collecteur/collecteur-4-rouge.png</t>
-  </si>
-  <si>
-    <t>collecteur/collecteur-5-bleu.png</t>
-  </si>
-  <si>
-    <t>collecteur/collecteur-5-rouge.png</t>
-  </si>
-  <si>
-    <t>collecteur/collecteur-6-bleu.png</t>
-  </si>
-  <si>
-    <t>collecteur/collecteur-6-rouge.png</t>
-  </si>
-  <si>
     <t>3/4-2</t>
   </si>
   <si>
@@ -273,6 +249,33 @@
   </si>
   <si>
     <t>4/4-5</t>
+  </si>
+  <si>
+    <t>collecteurs/collecteur-4-rouge.png</t>
+  </si>
+  <si>
+    <t>collecteurs/collecteur-5-rouge.png</t>
+  </si>
+  <si>
+    <t>collecteurs/collecteur-6-rouge.png</t>
+  </si>
+  <si>
+    <t>collecteurs/collecteur-2-bleu.png</t>
+  </si>
+  <si>
+    <t>collecteurs/collecteur-3-bleu.png</t>
+  </si>
+  <si>
+    <t>collecteurs/collecteur-4-bleu.png</t>
+  </si>
+  <si>
+    <t>collecteurs/collecteur-5-bleu.png</t>
+  </si>
+  <si>
+    <t>collecteurs/collecteur-6-bleu.png</t>
+  </si>
+  <si>
+    <t>collecteurs/collecteur-2-rouge.png</t>
   </si>
 </sst>
 </file>
@@ -683,13 +686,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5862B2-EBB0-4D15-9659-D132FB8D0373}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.21875" style="6" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
@@ -730,13 +733,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D2" s="8">
         <v>19.78</v>
@@ -747,13 +750,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D3" s="8">
         <v>26.73</v>
@@ -764,13 +767,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D4" s="8">
         <v>35.69</v>
@@ -781,13 +784,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D5" s="8">
         <v>40.56</v>
@@ -798,13 +801,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D6" s="8">
         <v>47.7</v>
@@ -815,13 +818,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D7" s="8">
         <v>17.77</v>
@@ -832,13 +835,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D8" s="8">
         <v>25.13</v>
@@ -849,13 +852,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D9" s="8">
         <v>33.54</v>
@@ -866,13 +869,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D10" s="8">
         <v>36.700000000000003</v>
@@ -883,13 +886,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D11" s="8">
         <v>47.7</v>
@@ -986,13 +989,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D19" s="8">
         <v>19.59</v>
@@ -1003,13 +1006,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D20" s="8">
         <v>19.59</v>
@@ -1020,13 +1023,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8">
         <v>42.78</v>
@@ -1037,13 +1040,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8">
         <v>42.78</v>

--- a/prix/collecteur.xlsx
+++ b/prix/collecteur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD9934A-C2E2-472B-AAEF-97949AC15704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC86DBF9-5B7B-47D1-B692-5AC3AB65CD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC89CC73-BE36-4334-9D51-D90570969AD5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>43120560</t>
   </si>
@@ -215,15 +215,6 @@
     <t>denomination</t>
   </si>
   <si>
-    <t>4/4</t>
-  </si>
-  <si>
-    <t>collecteur/collecteur-2-rouge.png</t>
-  </si>
-  <si>
-    <t>collecteur/collecteur-3-rouge.png</t>
-  </si>
-  <si>
     <t>3/4-2</t>
   </si>
   <si>
@@ -242,12 +233,6 @@
     <t>4/4-2</t>
   </si>
   <si>
-    <t>4/4-3</t>
-  </si>
-  <si>
-    <t>4/4-4</t>
-  </si>
-  <si>
     <t>4/4-5</t>
   </si>
   <si>
@@ -276,6 +261,9 @@
   </si>
   <si>
     <t>collecteurs/collecteur-2-rouge.png</t>
+  </si>
+  <si>
+    <t>collecteurs/collecteur-3-rouge.png</t>
   </si>
 </sst>
 </file>
@@ -686,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5862B2-EBB0-4D15-9659-D132FB8D0373}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,13 +721,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" s="8">
         <v>19.78</v>
@@ -750,13 +738,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8">
         <v>26.73</v>
@@ -767,13 +755,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D4" s="8">
         <v>35.69</v>
@@ -784,13 +772,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D5" s="8">
         <v>40.56</v>
@@ -801,13 +789,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D6" s="8">
         <v>47.7</v>
@@ -818,13 +806,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7" s="8">
         <v>17.77</v>
@@ -835,13 +823,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D8" s="8">
         <v>25.13</v>
@@ -852,13 +840,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D9" s="8">
         <v>33.54</v>
@@ -869,13 +857,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10" s="8">
         <v>36.700000000000003</v>
@@ -886,13 +874,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D11" s="8">
         <v>47.7</v>
@@ -977,9 +965,7 @@
       <c r="B18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="C18" s="7"/>
       <c r="D18" s="8">
         <v>5.17</v>
       </c>
@@ -989,13 +975,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D19" s="8">
         <v>19.59</v>
@@ -1006,13 +992,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8">
         <v>19.59</v>
@@ -1023,13 +1009,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8">
         <v>42.78</v>
@@ -1040,13 +1026,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8">
         <v>42.78</v>

--- a/prix/collecteur.xlsx
+++ b/prix/collecteur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC86DBF9-5B7B-47D1-B692-5AC3AB65CD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D7880A-B70A-41F7-A210-05CF833695AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC89CC73-BE36-4334-9D51-D90570969AD5}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{AC89CC73-BE36-4334-9D51-D90570969AD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>43120560</t>
   </si>
@@ -98,48 +98,6 @@
     <t>Collecteur 3/4 x6 sorties bleues</t>
   </si>
   <si>
-    <t>43120578</t>
-  </si>
-  <si>
-    <t>Support collecteur double 3/4 (la paire)</t>
-  </si>
-  <si>
-    <t>43120579</t>
-  </si>
-  <si>
-    <t>Support collecteur  3/4 (la paire)</t>
-  </si>
-  <si>
-    <t>43120580</t>
-  </si>
-  <si>
-    <t>Support collecteur  4/4 (la paire)</t>
-  </si>
-  <si>
-    <t>43120581</t>
-  </si>
-  <si>
-    <t>Support collecteur  double 4/4 paire</t>
-  </si>
-  <si>
-    <t>43120599</t>
-  </si>
-  <si>
-    <t>console simple pr coll.4/4 (paire)</t>
-  </si>
-  <si>
-    <t>43120601</t>
-  </si>
-  <si>
-    <t>Support collect  double 3/4</t>
-  </si>
-  <si>
-    <t>43120606</t>
-  </si>
-  <si>
-    <t>Console simple pr coll. 4/4 (paire)</t>
-  </si>
-  <si>
     <t>43120642</t>
   </si>
   <si>
@@ -162,42 +120,6 @@
   </si>
   <si>
     <t>Collecteur 4/4 x5 sorties bleu</t>
-  </si>
-  <si>
-    <t>43120710</t>
-  </si>
-  <si>
-    <t>Support simple collecteur 3/4</t>
-  </si>
-  <si>
-    <t>431207100</t>
-  </si>
-  <si>
-    <t>Support simple colle. 3/4 alpex</t>
-  </si>
-  <si>
-    <t>43120711</t>
-  </si>
-  <si>
-    <t>Support double collecteur 3/4 (paire)</t>
-  </si>
-  <si>
-    <t>43120714</t>
-  </si>
-  <si>
-    <t>Support simple collecteur 3/4 et 4/4 (la paire)</t>
-  </si>
-  <si>
-    <t>43120715</t>
-  </si>
-  <si>
-    <t>Support double collecteur 3/4 et 4/4 (la paire)</t>
-  </si>
-  <si>
-    <t>43120720</t>
-  </si>
-  <si>
-    <t>Pot de collecteur</t>
   </si>
   <si>
     <t>path</t>
@@ -294,12 +216,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -314,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -325,7 +259,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,8 +269,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5862B2-EBB0-4D15-9659-D132FB8D0373}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,7 +626,7 @@
     <col min="1" max="1" width="29.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.21875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" style="2" customWidth="1"/>
@@ -695,19 +638,19 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -721,16 +664,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="8">
-        <v>19.78</v>
+        <v>33</v>
+      </c>
+      <c r="D2" s="10">
+        <v>26.11</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>0</v>
@@ -738,16 +681,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="8">
-        <v>26.73</v>
+        <v>34</v>
+      </c>
+      <c r="D3" s="10">
+        <v>34.82</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>2</v>
@@ -755,16 +698,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="8">
-        <v>35.69</v>
+        <v>35</v>
+      </c>
+      <c r="D4" s="10">
+        <v>47.11</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>4</v>
@@ -772,16 +715,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="8">
-        <v>40.56</v>
+        <v>36</v>
+      </c>
+      <c r="D5" s="10">
+        <v>53.45</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>6</v>
@@ -789,16 +732,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="8">
-        <v>47.7</v>
+        <v>37</v>
+      </c>
+      <c r="D6" s="10">
+        <v>62.97</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>8</v>
@@ -806,16 +749,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="8">
-        <v>17.77</v>
+        <v>33</v>
+      </c>
+      <c r="D7" s="10">
+        <v>23.46</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
@@ -823,16 +766,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="8">
-        <v>25.13</v>
+        <v>34</v>
+      </c>
+      <c r="D8" s="10">
+        <v>34.82</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
@@ -840,16 +783,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="8">
-        <v>33.54</v>
+        <v>35</v>
+      </c>
+      <c r="D9" s="10">
+        <v>44.27</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>14</v>
@@ -857,16 +800,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="8">
-        <v>36.700000000000003</v>
+        <v>36</v>
+      </c>
+      <c r="D10" s="10">
+        <v>48.44</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>16</v>
@@ -874,243 +817,87 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="8">
-        <v>47.7</v>
+        <v>37</v>
+      </c>
+      <c r="D11" s="10">
+        <v>62.97</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8">
-        <v>6.01</v>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="10">
+        <v>25.86</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8">
-        <v>5.6000000000000005</v>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10">
+        <v>25.86</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8">
-        <v>22.8</v>
+      <c r="C14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="11">
+        <v>56.47</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8">
-        <v>34.01</v>
+      <c r="C15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="11">
+        <v>56.47</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8">
-        <v>7.09</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8">
-        <v>11.75</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8">
-        <v>5.17</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="8">
-        <v>19.59</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="8">
-        <v>19.59</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="8">
-        <v>42.78</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="8">
-        <v>42.78</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8">
-        <v>6.75</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8">
-        <v>9.7000000000000011</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8">
-        <v>15.48</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8">
-        <v>8.75</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8">
-        <v>11.93</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8">
-        <v>4.62</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
